--- a/MineRL.xlsx
+++ b/MineRL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>ACTION</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>Riconosce l'albero e lo colpisce ma non riesce a stare fermo e rompere un blocco</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Usato video convertiti da 64x64 a 640x360</t>
+  </si>
+  <si>
+    <t>Usato Bot MineFlayer (no crepe/animazioni)</t>
+  </si>
+  <si>
+    <t>Usato video convertiti da 64x64 a 640x360 + video manuali</t>
+  </si>
+  <si>
+    <t>Spacca blocchi di terra e legna</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,7 +139,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,10 +434,12 @@
     <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.08984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -428,13 +453,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45799</v>
       </c>
@@ -448,13 +479,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45807</v>
       </c>
@@ -468,13 +502,16 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45808</v>
       </c>
@@ -488,13 +525,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45808</v>
       </c>
@@ -508,14 +548,86 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MineRL.xlsx
+++ b/MineRL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>ACTION</t>
   </si>
@@ -85,13 +85,25 @@
   </si>
   <si>
     <t>Spacca blocchi di terra e legna</t>
+  </si>
+  <si>
+    <t>foundamental 1x</t>
+  </si>
+  <si>
+    <t>Riconosce l'albero e lo colpisce (con maggior precisione mi pare) ma non riesce a stare fermo e rompere un blocco</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>Colpisce la terra, qualche volta l'albero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +115,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +159,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45810</v>
       </c>
@@ -602,31 +631,110 @@
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>45810</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>45811</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>229</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>229</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MineRL.xlsx
+++ b/MineRL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>ACTION</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>3x</t>
-  </si>
-  <si>
-    <t>2x</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
@@ -93,17 +87,74 @@
     <t>Riconosce l'albero e lo colpisce (con maggior precisione mi pare) ma non riesce a stare fermo e rompere un blocco</t>
   </si>
   <si>
-    <t>1x</t>
-  </si>
-  <si>
     <t>Colpisce la terra, qualche volta l'albero</t>
+  </si>
+  <si>
+    <t>rl-from-early-game-2x</t>
+  </si>
+  <si>
+    <t>foundation-model-1x</t>
+  </si>
+  <si>
+    <t>foundation-model-2x</t>
+  </si>
+  <si>
+    <t>foundation-model-3x</t>
+  </si>
+  <si>
+    <t>Riconosce e rompe la legna</t>
+  </si>
+  <si>
+    <t>Apre l'inventario e prova a craftare anche se è vuoto</t>
+  </si>
+  <si>
+    <t>rl-from-house-2x</t>
+  </si>
+  <si>
+    <t>rl-from-foundation-2x</t>
+  </si>
+  <si>
+    <t>bc-early-game-2x</t>
+  </si>
+  <si>
+    <t>bc-house-3x</t>
+  </si>
+  <si>
+    <t>bc-early-game-3x</t>
+  </si>
+  <si>
+    <t>Va in giro per il mondo e può spaccare legna/foglie casualmente</t>
+  </si>
+  <si>
+    <t>Cammina un po' in giro poi si ferma e si guarda intorno</t>
+  </si>
+  <si>
+    <t>Gira per il mondo e apre l'inventario per craftare</t>
+  </si>
+  <si>
+    <t>foundamental 2x</t>
+  </si>
+  <si>
+    <t>Apre l'inventario e crafta assi di legno</t>
+  </si>
+  <si>
+    <t>Gira per il mondo spacca la legna e apre l'inventario per craftare</t>
+  </si>
+  <si>
+    <t>Dal legno fa gli assi, crea la crafting table, crea i bastoni, crea il piccone, inizia a scavare</t>
+  </si>
+  <si>
+    <t>Default task</t>
+  </si>
+  <si>
+    <t>Spacca legna in continuazione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +173,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,6 +229,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,18 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="38.1796875" style="4" bestFit="1" customWidth="1"/>
@@ -478,7 +541,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -491,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -508,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -531,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -551,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -574,10 +637,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -597,19 +660,19 @@
         <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -623,19 +686,19 @@
         <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -649,16 +712,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -672,19 +735,19 @@
         <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -701,14 +764,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -722,19 +785,199 @@
         <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/MineRL.xlsx
+++ b/MineRL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>ACTION</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Spacca legna in continuazione</t>
+  </si>
+  <si>
+    <t>Non colpisce neanche la legna</t>
+  </si>
+  <si>
+    <t>Usato video Baritone 1 min per video nel dataset</t>
+  </si>
+  <si>
+    <t>Usato video Baritone 5 min per video nel dataset</t>
   </si>
 </sst>
 </file>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +562,7 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -900,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45812</v>
       </c>
@@ -920,7 +929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45812</v>
       </c>
@@ -940,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45812</v>
       </c>
@@ -960,7 +969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45812</v>
       </c>
@@ -978,6 +987,56 @@
       </c>
       <c r="G20" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/MineRL.xlsx
+++ b/MineRL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>ACTION</t>
   </si>
@@ -153,10 +153,19 @@
     <t>Non colpisce neanche la legna</t>
   </si>
   <si>
-    <t>Usato video Baritone 1 min per video nel dataset</t>
-  </si>
-  <si>
     <t>Usato video Baritone 5 min per video nel dataset</t>
+  </si>
+  <si>
+    <t>Usati dati reali divisi in secondi</t>
+  </si>
+  <si>
+    <t>Riconosce la legna ma la confonde con la terra e spacca quella</t>
+  </si>
+  <si>
+    <t>Riconosce la legna la colpisce ma senza romperla</t>
+  </si>
+  <si>
+    <t>Usati dati Baritone divisi in secondi</t>
   </si>
 </sst>
 </file>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45815</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
@@ -1034,9 +1043,37 @@
       <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H22" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/MineRL.xlsx
+++ b/MineRL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>ACTION</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Usati dati Baritone divisi in secondi</t>
+  </si>
+  <si>
+    <t>Durata media clip</t>
+  </si>
+  <si>
+    <t>5 minuti</t>
+  </si>
+  <si>
+    <t>10 secondi</t>
   </si>
 </sst>
 </file>
@@ -204,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,32 +239,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,548 +551,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A12:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="38.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="38.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>45799</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>45807</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>45808</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>45808</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>45810</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6">
         <v>109</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>45810</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6">
         <v>109</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
         <v>45810</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>45811</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6">
         <v>229</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
         <v>45811</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10">
         <v>229</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>45812</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
         <v>229</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>45812</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>45812</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>45812</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>45812</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>45812</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>45812</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>45812</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>45812</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>45812</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>45814</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6">
         <v>88</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>45815</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="6">
         <v>149</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>45815</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6">
         <v>150</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>45815</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6">
+        <v>150</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
